--- a/Debug/TestGridForming.xlsx
+++ b/Debug/TestGridForming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F2A82D-A5E6-43A9-8541-C852FD5E53DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6BF8F-88A3-4BE9-849C-6558E11A0151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1408,10 +1408,10 @@
       </c>
       <c r="C11">
         <f>D11/5</f>
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1592,7 +1592,7 @@
         <v>72</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
